--- a/Externaldata/Sale_Of_Fertilizer.xlsx
+++ b/Externaldata/Sale_Of_Fertilizer.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4A09F4-5E20-4018-83D8-A939071DD8F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931483F4-4E55-45D2-8DC1-2019F7DD5C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>District</t>
   </si>
@@ -122,13 +122,17 @@
     <t>Ganjam</t>
   </si>
   <si>
-    <t xml:space="preserve">Successfully </t>
+    <t>Successfully</t>
+  </si>
+  <si>
+    <t>Successfully Verifired</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,22 +530,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
-    <col min="4" max="4" width="22.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
-    <col min="11" max="11" width="16.44140625" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="16" max="16" width="20.88671875" customWidth="1"/>
-    <col min="17" max="17" width="30.77734375" customWidth="1"/>
-    <col min="18" max="18" width="16.33203125" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.44140625"/>
+    <col min="2" max="2" customWidth="true" width="25.5546875"/>
+    <col min="3" max="3" customWidth="true" width="19.88671875"/>
+    <col min="4" max="4" customWidth="true" width="22.44140625"/>
+    <col min="5" max="5" customWidth="true" width="21.21875"/>
+    <col min="6" max="6" customWidth="true" width="17.0"/>
+    <col min="7" max="7" customWidth="true" width="14.109375"/>
+    <col min="8" max="8" customWidth="true" width="15.44140625"/>
+    <col min="9" max="9" customWidth="true" width="17.0"/>
+    <col min="10" max="10" customWidth="true" width="16.33203125"/>
+    <col min="11" max="11" customWidth="true" width="16.44140625"/>
+    <col min="12" max="12" customWidth="true" width="16.0"/>
+    <col min="16" max="16" customWidth="true" width="20.88671875"/>
+    <col min="17" max="17" customWidth="true" width="30.77734375"/>
+    <col min="18" max="18" customWidth="true" width="16.33203125"/>
+    <col min="19" max="19" customWidth="true" width="11.88671875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="72" x14ac:dyDescent="0.3">
@@ -683,7 +687,7 @@
         <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>30</v>

--- a/Externaldata/Sale_Of_Fertilizer.xlsx
+++ b/Externaldata/Sale_Of_Fertilizer.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931483F4-4E55-45D2-8DC1-2019F7DD5C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA571DD-E588-44C9-9AD6-95D65BFDFB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>District</t>
   </si>
@@ -101,12 +101,6 @@
     <t>DRCS Approved/Rejected status</t>
   </si>
   <si>
-    <t>admin194@gmail.com</t>
-  </si>
-  <si>
-    <t>Cams@1234</t>
-  </si>
-  <si>
     <t>payal@oasys.com</t>
   </si>
   <si>
@@ -116,23 +110,22 @@
     <t>Sashiroul@gmail.com</t>
   </si>
   <si>
-    <t>Abhayapur SCS</t>
-  </si>
-  <si>
-    <t>Ganjam</t>
-  </si>
-  <si>
-    <t>Successfully</t>
-  </si>
-  <si>
-    <t>Successfully Verifired</t>
+    <t>Sasi</t>
+  </si>
+  <si>
+    <t>sasi11@gmail.com</t>
+  </si>
+  <si>
+    <t>Siba@123</t>
+  </si>
+  <si>
+    <t>Jharsuguda</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -215,6 +208,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -524,28 +520,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.44140625"/>
-    <col min="2" max="2" customWidth="true" width="25.5546875"/>
-    <col min="3" max="3" customWidth="true" width="19.88671875"/>
-    <col min="4" max="4" customWidth="true" width="22.44140625"/>
-    <col min="5" max="5" customWidth="true" width="21.21875"/>
-    <col min="6" max="6" customWidth="true" width="17.0"/>
-    <col min="7" max="7" customWidth="true" width="14.109375"/>
-    <col min="8" max="8" customWidth="true" width="15.44140625"/>
-    <col min="9" max="9" customWidth="true" width="17.0"/>
-    <col min="10" max="10" customWidth="true" width="16.33203125"/>
-    <col min="11" max="11" customWidth="true" width="16.44140625"/>
-    <col min="12" max="12" customWidth="true" width="16.0"/>
-    <col min="16" max="16" customWidth="true" width="20.88671875"/>
-    <col min="17" max="17" customWidth="true" width="30.77734375"/>
-    <col min="18" max="18" customWidth="true" width="16.33203125"/>
-    <col min="19" max="19" customWidth="true" width="11.88671875"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="16" max="16" width="20.88671875" customWidth="1"/>
+    <col min="17" max="17" width="30.77734375" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="72" x14ac:dyDescent="0.3">
@@ -638,20 +634,20 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F2" s="3">
         <v>100</v>
@@ -686,16 +682,13 @@
       <c r="P2" s="3">
         <v>25</v>
       </c>
-      <c r="Q2" t="s">
-        <v>36</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" s="3"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -703,19 +696,20 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="R2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{EEA04310-5C71-4AE7-9119-B7F5D8F62C83}"/>
+    <hyperlink ref="S2" r:id="rId3" xr:uid="{D9BBBD58-243A-4D6A-ACEE-FEED0D3CD50E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>